--- a/Project-S/Assets/Resource/Excel/ExcelFile/ItemTable.xlsx
+++ b/Project-S/Assets/Resource/Excel/ExcelFile/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Resources\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Resource\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B15E74-EFC3-4060-B301-BAE6B5239034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF925C3-3B85-480F-9859-8AF000ECE066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="2580" windowWidth="19545" windowHeight="11835" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
+    <workbookView xWindow="31470" yWindow="2925" windowWidth="19545" windowHeight="11835" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
